--- a/medicine/Mort/Décès_en_1983/Décès_en_1983.xlsx
+++ b/medicine/Mort/Décès_en_1983/Décès_en_1983.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,7 +538,9 @@
           <t>Janvier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2 janvier : Dick Emery, acteur britannique (° 19 février 1915).
 11 janvier : Nikolaï Podgorny, homme politique soviétique (° 10 février 1903) ou (° 18 février 1903) ?
@@ -556,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -574,7 +588,9 @@
           <t>Février</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 février :
 Paul Mansouroff, peintre russe puis soviétique de l'avant-garde russe et du suprématisme (° 2 mars 1896).
@@ -601,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,7 +635,9 @@
           <t>Mars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : Arthur Koestler, écrivain hongrois naturalisé britannique (° 5 septembre 1905).
 3 mars : Georges Remi dit Hergé, auteur de bande dessinée belge (° 22 mai 1907).
@@ -654,7 +672,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +690,9 @@
           <t>Avril</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2 avril : Zhang Daqian, peintre chinois et taiwanais (° 10 mai 1899).
 4 avril : Bernard Vukas, footballeur yougoslave (° 1er mai 1927).
@@ -700,7 +720,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -718,7 +738,9 @@
           <t>Mai</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>5 mai : John Williams, acteur anglais (° 15 avril 1903).
 6 mai :
@@ -744,7 +766,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +784,9 @@
           <t>Juin</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>5 juin : C.P. Singh, entrepreneur et homme politique fidjien (° vers 1914).
 7 juin : Denise Glaser, productrice et présentatrice de télévision (° 30 novembre 1920).
@@ -786,7 +810,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -804,7 +828,9 @@
           <t>Juillet</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1er juillet : Richard Buckminster Fuller, architecte, designer, inventeur et écrivain américain (° 12 juillet 1895).
 4 juillet : Dr John Bodkin Adams, médecin généraliste anglais et tueur en série (° 21 janvier 1899).
@@ -813,7 +839,7 @@
 10 juillet : Werner Egk, compositeur allemand (° 17 mai 1901).
 11 juillet :  Jack Chambrin, peintre, graveur sur bois et lithographe français (° 26 mars 1919).
 13 juillet : Gabrielle Roy, écrivaine canadienne (° 22 mars 1909).
-17 juillet : Gilbert Bonvin, footballeur français (° 13 février 1931)[1].
+17 juillet : Gilbert Bonvin, footballeur français (° 13 février 1931).
 20 juillet : Pierre Commarmond, peintre et affichiste français (° 6 février 1897).
 23 juillet : Georges Auric, compositeur français (° 15 février 1899).
 26 juillet : Georges Guinegault, peintre français (° 27 mars 1893).
@@ -830,7 +856,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -848,7 +874,9 @@
           <t>Août</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1er août : Peter Arne, acteur britannique (° 29 septembre 1920).
 2 août :
@@ -870,7 +898,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -888,7 +916,9 @@
           <t>Septembre</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1er septembre : Henry M. Jackson, homme politique américain (° 31 mai 1912).
 2 septembre : Jimmy Aubrey, acteur britannique (° 23 octobre 1887).
@@ -916,7 +946,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -934,7 +964,9 @@
           <t>Octobre</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1er octobre : Paul Eliasberg, peintre, dessinateur et graveur franco-allemand (° 17 avril 1907).
 2 octobre : Helga Stene, résistante norvégienne (° 8 octobre 1904).
@@ -962,7 +994,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -980,7 +1012,9 @@
           <t>Novembre</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>5 novembre : John Gallaudet, acteur américain (° 23 août 1903).
 7 novembre :
@@ -1012,7 +1046,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1983</t>
+          <t>Décès_en_1983</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1030,7 +1064,9 @@
           <t>Décembre</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>5 décembre :
 Robert Aldrich, producteur et réalisateur américain (° 9 août 1918).
